--- a/快递管理系统/课堂记录.xlsx
+++ b/快递管理系统/课堂记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phuan\Desktop\remote-repo\快递管理系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E4306E5-843A-4714-9A10-70B519F5B34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C5FE6C-1C68-46FA-8FA2-D119F69C61C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{067331B2-7E9C-4952-B8FB-432A4DD120A9}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{067331B2-7E9C-4952-B8FB-432A4DD120A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
   <si>
     <t>项目信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,32 @@
   </si>
   <si>
     <t>作业讲评让我对上次作业中ER图设计的不足进行了反思，意识到了自己所作ER图中的不足之处并进行了改正，这使得我对整个系统有了更好的把控。组件框架的引入极大地简化了前端开发流程，提高了开发效率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然没有系统学习过javascript，但是在本科阶段较多的使用Android Studio进行安卓端app开发，可以体会到Android前端开发与本节课所学内容的相似之处，感受到了知识之间融会贯通的乐趣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript的实操不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多多尝试用js实现页面中的功能，逐渐提高对js的使用熟练度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.09.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①对第一次的作业做了讲评，讲解了一个bug的处理思路，并带我们制作了一个后台管理页面的前端部分；
+②这堂课的主体部分是javascript的学习，javascript可以分为ECMAScript DOM BOM三种类型，相比于java等强类型编程语言，js是一种弱类型的编程语言，对数据类型的要求比较弱；重点学习了DOM，即document操作，并用输入框输入数据获取以及密码框可见功能的实现做例子进行了实操；学习了更加简化的js库——jquery的语法。
+③最后介绍了ZUI框架之外的可选择框架——layui。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,6 +323,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -316,13 +351,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -332,15 +367,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,27 +682,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C070542-4810-4C44-B3CA-BD4CD0234C21}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -738,17 +764,17 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -768,49 +794,49 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -872,17 +898,17 @@
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -902,44 +928,181 @@
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="136.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="21">
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
@@ -954,6 +1117,13 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/快递管理系统/课堂记录.xlsx
+++ b/快递管理系统/课堂记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phuan\Desktop\remote-repo\快递管理系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C5FE6C-1C68-46FA-8FA2-D119F69C61C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F368B73F-5581-405D-9791-C84FA7DD378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{067331B2-7E9C-4952-B8FB-432A4DD120A9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t>项目信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,29 @@
     <t>①对第一次的作业做了讲评，讲解了一个bug的处理思路，并带我们制作了一个后台管理页面的前端部分；
 ②这堂课的主体部分是javascript的学习，javascript可以分为ECMAScript DOM BOM三种类型，相比于java等强类型编程语言，js是一种弱类型的编程语言，对数据类型的要求比较弱；重点学习了DOM，即document操作，并用输入框输入数据获取以及密码框可见功能的实现做例子进行了实操；学习了更加简化的js库——jquery的语法。
 ③最后介绍了ZUI框架之外的可选择框架——layui。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.09.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①补充学习了框架常用的附属功能——a. 新增弹窗，利用管理系统中的新增弹窗进行了ZUI对话框的实践；b. echarts图标，学习了如何在页面的设计中加入饼图、柱形图等图标；c. layui弹窗，学习了layui框架中的一种弹出框，这种弹出方式比默认的方式美观很多；d. js正则表达式，学习了正则表达式的应用方式，可以用于邮箱格式校验、密码强度校验等场景。
+②学习了响应式和栅格系统，响应式可以实现移动设备和大屏设备的分别适配，栅格系统使得元素之间的排布十分方便。
+③在老师的指导下，模拟实现了将确定好的效果图向HTML静态页面的转变。本次实操涉及了轮播图的插入，响应式的实际设计流程，调整组件大小位置的思路以及对栅格系统的理解，还学习到了HBuilderX中取色器的使用方法。
+④最后简单介绍了JDK1.8及idea2019的环境配置方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充学习的新的框架功能使用不熟练，响应式以及栅格系统的设计仍然需要在自己的实践中加以练习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在完成作业的基础上，使用本堂课程补充介绍的功能对上周作业成果进行进一步效果完善，例如使用layui弹出层优化弹出方式、实现使得设计风格更统一的新增弹窗功能等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栅格系统的学习很大程度上解决了我在前几周作业中遇到的布局难的问题，简化了布局设计思路，并且成果布局更加稳定。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C070542-4810-4C44-B3CA-BD4CD0234C21}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1101,8 +1124,142 @@
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="28">
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
@@ -1124,6 +1281,13 @@
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/快递管理系统/课堂记录.xlsx
+++ b/快递管理系统/课堂记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phuan\Desktop\remote-repo\快递管理系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F368B73F-5581-405D-9791-C84FA7DD378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79305ED-89C0-47EE-A743-3662D11B934A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{067331B2-7E9C-4952-B8FB-432A4DD120A9}"/>
+    <workbookView xWindow="420" yWindow="-135" windowWidth="21600" windowHeight="11295" xr2:uid="{067331B2-7E9C-4952-B8FB-432A4DD120A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
   <si>
     <t>项目信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,56 @@
   </si>
   <si>
     <t>栅格系统的学习很大程度上解决了我在前几周作业中遇到的布局难的问题，简化了布局设计思路，并且成果布局更加稳定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 经过在网络上查询，并且多次的自我尝试解决；
+② 仔细完成布置的SQL作业，在实践中提高自己对SQL的熟练度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①课程的第一部分首先对上次作业进行了讲评，展示了几位同学的前端设计成果，并将该前端作为本节课后端代码设计的基础。
+②进行了idea的后端环境配置，主要针对中文乱码的问题进行了讲解，经过多次尝试，最终解决了该问题。此外，编写了一段登陆用的后端代码，实现了前端到后端消息的简单传输。介绍了通过TOMCAT分别利用POST和GET两种信息传输方式的优缺点。
+③配置了数据库相关工具包——navicat和XAMPP，其中XAMPP内含mySQL、navicat可以实现对数据库的直观访问。利用navicat对SQL内容进行了复习，包括建表、基础增删改查、几种连接方式以及一些高级的查询写法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① IDEA中乱码问题的解决；
+② 对SQL遗忘较严重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL语句的熟练使用是整个后端设计的重中之重，我会在课+A65:D68外的实践中不断提高自己SQL语句编写水平。此外我意识到，学习需要时刻对已学知识进行温习，温故而知新的道理在学习的路上长久适用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.10.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本堂课程延续上节课的内容，继续进行前后端的连接，首先回顾了上节课讲到的后端与前端连接的方法。本节课主要学习后端与数据库的连接方法，从JDBC、MVC模式以及ajax三部分进行学习。
+①JDBC相关内容。JDBC是最基础的数据库连接方式，首先进行了一系列驱动的加载，在后端代码中通过实现对数据库的增删改查的过程执行。
+②JavaWeb项目的MVC模式将项目分为三部分——分别是对象类、前端页面以及servlet。在数据库连接中，Model用于表示数据库中的数据结构和业务逻辑，View负责显示数据，Controller则负责接收用户请求、调用Model进行数据处理并更新View。
+③ajax在前后端交互中，可以允许在不重新加载页面的情况下，与后端服务器交换数据并更新网页内容。
+课程的后半部分针对之前的前端界面实现了登陆功能，包括从前端页面获取数据，通过ajax发送至后端服务器，利用JDBC对数据库进行增删改查操作，并将操作结果返回给后端服务器后发送至前端页面更新View。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①第一次未顺利导入jar包
+②在进行数据库的增删改查操作时，sql语句逻辑处理中存在错误。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①将数据库驱动jar包重新添加到正确路径得到解决。
+②需要继续熟悉SQL语句的使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论知识是基础，但只有通过实践才能真正掌握和运用。今天的课程中，我们通过真实的项目实践，对JDBC、MVC模式和ajax有了更深入的理解。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,6 +405,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -372,15 +431,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -705,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C070542-4810-4C44-B3CA-BD4CD0234C21}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,12 +770,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -787,17 +837,17 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -854,12 +904,12 @@
       <c r="D12" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -921,17 +971,17 @@
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -988,12 +1038,12 @@
       <c r="D25" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -1055,17 +1105,17 @@
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -1125,12 +1175,12 @@
       <c r="D44" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1192,17 +1242,17 @@
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1258,13 +1308,221 @@
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="176.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" ht="52.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B12:D12"/>
+  <mergeCells count="39">
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="B19:D19"/>
@@ -1274,20 +1532,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/快递管理系统/课堂记录.xlsx
+++ b/快递管理系统/课堂记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phuan\Desktop\remote-repo\快递管理系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79305ED-89C0-47EE-A743-3662D11B934A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E492DF-C67D-4383-A287-1B46D8A8EED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="-135" windowWidth="21600" windowHeight="11295" xr2:uid="{067331B2-7E9C-4952-B8FB-432A4DD120A9}"/>
+    <workbookView xWindow="5868" yWindow="-96" windowWidth="17280" windowHeight="8880" xr2:uid="{067331B2-7E9C-4952-B8FB-432A4DD120A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="60">
   <si>
     <t>项目信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>理论知识是基础，但只有通过实践才能真正掌握和运用。今天的课程中，我们通过真实的项目实践，对JDBC、MVC模式和ajax有了更深入的理解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①删除按钮的onclick方法导入失败，原因在于字符串的拼接错误
+②用户体验感可以继续提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本堂课程首先对往期课程进行了回顾，即前端、后端与前后端交互开发的总体流程。本次课程仍然是后端部分的补充，即表格中数据从数据库动态获取功能的实现。
+①管理系统中信息查询表格的实现。具体流程是：首先在js代码中通过ajax发送获取指令到servlet，在servlet中调用dao接口，该接口功能从数据库中获取信息构建出用户对象类型的Arraylist，将该ArrayList包装成JSON对象后，返回并渲染到前端页面。
+②删除按钮功能的实现。在删除按钮绑定onclick函数，在该方法中通过ajax将userId发送到servlet，在servlet中调用dao的对应接口，在该接口中实现数据库中的删除功能，并将删除行数返回，最后在前端界面中重新渲染删除后的表格。为提高用户体验度，将表格的查询显示封装为showUser方法，每次删除成功时调用showUser方法，并在showUser方法中开始添加表格的empty方法将表格清空。
+③修改按钮功能的实现。使用layui中的对话框来将用户信息展示出来，由于用户信息展示使用函数传入的话，字符串拼接过于复杂，从数据库查询用户详细信息，并将对话框中用户修改后的信息由后端数据库修改代码实现用户信息修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,6 +417,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,24 +443,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -755,29 +767,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C070542-4810-4C44-B3CA-BD4CD0234C21}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:D82"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -791,7 +803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -805,7 +817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -819,7 +831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -833,23 +845,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -863,7 +875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -873,7 +885,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -883,7 +895,7 @@
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -893,7 +905,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -903,15 +915,15 @@
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -925,7 +937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -939,7 +951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -953,7 +965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -967,23 +979,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -997,7 +1009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,7 +1019,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1029,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +1039,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1037,15 +1049,15 @@
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +1071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -1087,7 +1099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1101,23 +1113,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -1131,7 +1143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="136.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="136.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1153,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1176,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -1174,15 +1186,15 @@
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
@@ -1224,7 +1236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -1238,23 +1250,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -1268,7 +1280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
@@ -1278,7 +1290,7 @@
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +1300,7 @@
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -1298,7 +1310,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
@@ -1308,7 +1320,7 @@
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -1322,7 +1334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="176.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="176.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -1332,7 +1344,7 @@
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>12</v>
       </c>
@@ -1342,7 +1354,7 @@
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" ht="52.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>13</v>
       </c>
@@ -1352,7 +1364,7 @@
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>14</v>
       </c>
@@ -1362,15 +1374,15 @@
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -1384,7 +1396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>4</v>
       </c>
@@ -1426,23 +1438,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C76" s="10"/>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +1468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -1466,7 +1478,7 @@
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>12</v>
       </c>
@@ -1476,7 +1488,7 @@
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>13</v>
       </c>
@@ -1486,7 +1498,7 @@
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>14</v>
       </c>
@@ -1496,33 +1508,154 @@
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
     </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="280.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+  <mergeCells count="46">
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="B19:D19"/>
@@ -1532,11 +1665,31 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
